--- a/jama_exports/kp_data.xlsx
+++ b/jama_exports/kp_data.xlsx
@@ -1142,10 +1142,10 @@
         <v>7</v>
       </c>
       <c r="P12">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q12">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="R12">
         <v>0.02</v>

--- a/jama_exports/kp_data.xlsx
+++ b/jama_exports/kp_data.xlsx
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -688,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O4">
         <v>11</v>
@@ -697,7 +697,7 @@
         <v>114</v>
       </c>
       <c r="Q4">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="R4">
         <v>0.03</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K6">
         <v>60</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O6">
         <v>60</v>
@@ -809,7 +809,7 @@
         <v>82</v>
       </c>
       <c r="Q6">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="R6">
         <v>0.15</v>

--- a/jama_exports/kp_data.xlsx
+++ b/jama_exports/kp_data.xlsx
@@ -611,7 +611,7 @@
         <v>230</v>
       </c>
       <c r="G3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>230</v>
       </c>
       <c r="O3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P3">
         <v>96</v>
@@ -644,7 +644,7 @@
         <v>2.4</v>
       </c>
       <c r="R3">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -688,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O4">
         <v>11</v>
@@ -697,7 +697,7 @@
         <v>114</v>
       </c>
       <c r="Q4">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="R4">
         <v>0.03</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O5">
         <v>13</v>
@@ -753,7 +753,7 @@
         <v>64</v>
       </c>
       <c r="Q5">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="R5">
         <v>0.09</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K6">
         <v>60</v>
@@ -800,16 +800,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="O6">
         <v>60</v>
       </c>
       <c r="P6">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q6">
-        <v>4.78</v>
+        <v>4.77</v>
       </c>
       <c r="R6">
         <v>0.15</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K7">
         <v>41</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O7">
         <v>43</v>
@@ -865,7 +865,7 @@
         <v>95</v>
       </c>
       <c r="Q7">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="R7">
         <v>0.11</v>
@@ -1003,7 +1003,7 @@
         <v>242</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>242</v>
       </c>
       <c r="O10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P10">
         <v>76</v>
@@ -1036,7 +1036,7 @@
         <v>3.18</v>
       </c>
       <c r="R10">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O13">
         <v>14</v>
       </c>
       <c r="P13">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="R13">
         <v>0.12</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O15">
         <v>8</v>
@@ -1313,7 +1313,7 @@
         <v>27</v>
       </c>
       <c r="Q15">
-        <v>3.07</v>
+        <v>3.04</v>
       </c>
       <c r="R15">
         <v>0.1</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1416,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q17">
-        <v>3.17</v>
+        <v>3.57</v>
       </c>
       <c r="R17">
         <v>0</v>

--- a/jama_exports/kp_data.xlsx
+++ b/jama_exports/kp_data.xlsx
@@ -611,7 +611,7 @@
         <v>230</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>230</v>
       </c>
       <c r="O3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P3">
         <v>96</v>
@@ -644,7 +644,7 @@
         <v>2.4</v>
       </c>
       <c r="R3">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -694,10 +694,10 @@
         <v>11</v>
       </c>
       <c r="P4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q4">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="R4">
         <v>0.03</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="K6">
         <v>60</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="O6">
         <v>60</v>
@@ -809,10 +809,10 @@
         <v>83</v>
       </c>
       <c r="Q6">
-        <v>4.77</v>
+        <v>4.99</v>
       </c>
       <c r="R6">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -862,10 +862,10 @@
         <v>43</v>
       </c>
       <c r="P7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q7">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="R7">
         <v>0.11</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G9">
         <v>20</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O9">
         <v>20</v>
       </c>
       <c r="P9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q9">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="R9">
         <v>0.1</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1024,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10">
         <v>3.18</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1080,16 +1080,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
       <c r="P11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q11">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>0.06</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O12">
         <v>7</v>
       </c>
       <c r="P12">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="R12">
         <v>0.02</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G14">
         <v>52</v>
@@ -1248,16 +1248,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O14">
         <v>52</v>
       </c>
       <c r="P14">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="R14">
         <v>0.16</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O15">
         <v>8</v>
       </c>
       <c r="P15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q15">
         <v>3.04</v>
       </c>
       <c r="R15">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -1360,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O16">
         <v>7</v>
       </c>
       <c r="P16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R16">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1416,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q17">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="R17">
         <v>0</v>

--- a/jama_exports/kp_data.xlsx
+++ b/jama_exports/kp_data.xlsx
@@ -611,7 +611,7 @@
         <v>230</v>
       </c>
       <c r="G3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>230</v>
       </c>
       <c r="O3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P3">
         <v>96</v>
@@ -644,7 +644,7 @@
         <v>2.4</v>
       </c>
       <c r="R3">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -688,16 +688,16 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O4">
         <v>11</v>
       </c>
       <c r="P4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q4">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="R4">
         <v>0.03</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="K6">
         <v>60</v>
@@ -800,16 +800,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="O6">
         <v>60</v>
       </c>
       <c r="P6">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q6">
-        <v>4.99</v>
+        <v>5.09</v>
       </c>
       <c r="R6">
         <v>0.14</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K7">
         <v>41</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="O7">
         <v>43</v>
       </c>
       <c r="P7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q7">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
       <c r="R7">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G9">
         <v>20</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O9">
         <v>20</v>
@@ -977,7 +977,7 @@
         <v>79</v>
       </c>
       <c r="Q9">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="R9">
         <v>0.1</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1024,16 +1024,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q10">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="R10">
         <v>0.36</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1080,16 +1080,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
       <c r="P11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R11">
         <v>0.06</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="O12">
         <v>7</v>
       </c>
       <c r="P12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>3.18</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -1192,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="O13">
         <v>14</v>
       </c>
       <c r="P13">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q13">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="R13">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="G14">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="O14">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P14">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q14">
-        <v>3.33</v>
+        <v>3.31</v>
       </c>
       <c r="R14">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>43</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P15">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q15">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="R15">
         <v>0.09</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1360,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q16">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R16">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="Q17">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="R17">
         <v>0</v>

--- a/jama_exports/kp_data.xlsx
+++ b/jama_exports/kp_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kone-my.sharepoint.com/personal/dinesh_goverthanan_kone_com/Documents/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_FFC65FC0BD19AB43B5264387A16C439D61B4E8C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13EC731-EC33-485D-9856-11A32AB57A24}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -121,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +191,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +243,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -263,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -297,9 +312,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,14 +488,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -588,10 +611,10 @@
         <v>3.13</v>
       </c>
       <c r="R2">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -647,7 +670,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -682,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>338</v>
@@ -703,7 +726,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -759,7 +782,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -812,10 +835,10 @@
         <v>5.09</v>
       </c>
       <c r="R6">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -871,7 +894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -927,7 +950,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -983,7 +1006,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1062,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1095,7 +1118,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1130,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1151,7 +1174,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1207,7 +1230,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1263,7 +1286,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1319,7 +1342,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1375,7 +1398,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1434,4 +1457,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{1595ec8e-1e2e-428f-9506-de1cbd0c2835}" enabled="1" method="Standard" siteId="{2bb82c64-2eb1-43f7-8862-fdc1d2333b50}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>
--- a/jama_exports/kp_data.xlsx
+++ b/jama_exports/kp_data.xlsx
@@ -70,6 +70,9 @@
     <t>Dinesh</t>
   </si>
   <si>
+    <t>Harini Sri</t>
+  </si>
+  <si>
     <t>Veeramanikandan</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Priyavalli</t>
-  </si>
-  <si>
-    <t>Harini Sri</t>
   </si>
   <si>
     <t>Suryanarayanan</t>
@@ -528,25 +528,25 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="I2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="K2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>4.56</v>
+        <v>4.24</v>
       </c>
       <c r="N2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -566,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>79</v>
@@ -578,19 +578,19 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M3">
-        <v>5.29</v>
+        <v>4.9</v>
       </c>
       <c r="N3">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -616,25 +616,25 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
         <v>9</v>
       </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
+      <c r="L4">
         <v>14</v>
       </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
       <c r="M4">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="N4">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -666,16 +666,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="N5">
         <v>0.08</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="N6">
-        <v>0.09</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -736,16 +736,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>11</v>
       </c>
       <c r="M7">
-        <v>1.55</v>
+        <v>2.09</v>
       </c>
       <c r="N7">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -798,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -842,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>4.47</v>
+        <v>1.88</v>
       </c>
       <c r="N9">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="K10">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>2.33</v>
+        <v>4.45</v>
       </c>
       <c r="N10">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -930,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>1.1</v>
+        <v>2.33</v>
       </c>
       <c r="N11">
-        <v>1.27</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G12">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -974,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>1.73</v>
+        <v>2.29</v>
       </c>
       <c r="N12">
-        <v>2.32</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1018,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="N13">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
